--- a/2022/Symphony/MAY/25.05.2022/MC Bank Statement May-2022.xlsx
+++ b/2022/Symphony/MAY/25.05.2022/MC Bank Statement May-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="255">
   <si>
     <t>Date</t>
   </si>
@@ -878,6 +878,9 @@
   </si>
   <si>
     <t>Symphony  Balance(+)</t>
+  </si>
+  <si>
+    <t>26.05.2022</t>
   </si>
 </sst>
 </file>
@@ -3162,6 +3165,21 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3317,21 +3335,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="42" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="33" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="33" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -4035,33 +4038,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="318"/>
-      <c r="B1" s="318"/>
-      <c r="C1" s="318"/>
-      <c r="D1" s="318"/>
-      <c r="E1" s="318"/>
-      <c r="F1" s="318"/>
+      <c r="A1" s="323"/>
+      <c r="B1" s="323"/>
+      <c r="C1" s="323"/>
+      <c r="D1" s="323"/>
+      <c r="E1" s="323"/>
+      <c r="F1" s="323"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="319"/>
-      <c r="B2" s="316" t="s">
+      <c r="A2" s="324"/>
+      <c r="B2" s="321" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="316"/>
-      <c r="D2" s="316"/>
-      <c r="E2" s="316"/>
+      <c r="C2" s="321"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="321"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="319"/>
-      <c r="B3" s="317" t="s">
+      <c r="A3" s="324"/>
+      <c r="B3" s="322" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="317"/>
-      <c r="D3" s="317"/>
-      <c r="E3" s="317"/>
+      <c r="C3" s="322"/>
+      <c r="D3" s="322"/>
+      <c r="E3" s="322"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="319"/>
+      <c r="A4" s="324"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -4079,7 +4082,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="319"/>
+      <c r="A5" s="324"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -4097,7 +4100,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="319"/>
+      <c r="A6" s="324"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -4109,7 +4112,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="319"/>
+      <c r="A7" s="324"/>
       <c r="B7" s="26" t="s">
         <v>54</v>
       </c>
@@ -4128,7 +4131,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="319"/>
+      <c r="A8" s="324"/>
       <c r="B8" s="26" t="s">
         <v>55</v>
       </c>
@@ -4147,7 +4150,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="319"/>
+      <c r="A9" s="324"/>
       <c r="B9" s="26" t="s">
         <v>57</v>
       </c>
@@ -4166,7 +4169,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="319"/>
+      <c r="A10" s="324"/>
       <c r="B10" s="26" t="s">
         <v>58</v>
       </c>
@@ -4185,7 +4188,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="319"/>
+      <c r="A11" s="324"/>
       <c r="B11" s="26" t="s">
         <v>59</v>
       </c>
@@ -4204,7 +4207,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="319"/>
+      <c r="A12" s="324"/>
       <c r="B12" s="26" t="s">
         <v>60</v>
       </c>
@@ -4223,7 +4226,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="319"/>
+      <c r="A13" s="324"/>
       <c r="B13" s="26" t="s">
         <v>61</v>
       </c>
@@ -4242,7 +4245,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="319"/>
+      <c r="A14" s="324"/>
       <c r="B14" s="26" t="s">
         <v>62</v>
       </c>
@@ -4261,7 +4264,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="319"/>
+      <c r="A15" s="324"/>
       <c r="B15" s="26" t="s">
         <v>63</v>
       </c>
@@ -4280,7 +4283,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="319"/>
+      <c r="A16" s="324"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4293,7 +4296,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="319"/>
+      <c r="A17" s="324"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4306,7 +4309,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="319"/>
+      <c r="A18" s="324"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4319,7 +4322,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="319"/>
+      <c r="A19" s="324"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4332,7 +4335,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="319"/>
+      <c r="A20" s="324"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4345,7 +4348,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="319"/>
+      <c r="A21" s="324"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4358,7 +4361,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="319"/>
+      <c r="A22" s="324"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4371,7 +4374,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="319"/>
+      <c r="A23" s="324"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4384,7 +4387,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="319"/>
+      <c r="A24" s="324"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4397,7 +4400,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="319"/>
+      <c r="A25" s="324"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4410,7 +4413,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="319"/>
+      <c r="A26" s="324"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4423,7 +4426,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="319"/>
+      <c r="A27" s="324"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4436,7 +4439,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="319"/>
+      <c r="A28" s="324"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4449,7 +4452,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="319"/>
+      <c r="A29" s="324"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4462,7 +4465,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="319"/>
+      <c r="A30" s="324"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4475,7 +4478,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="319"/>
+      <c r="A31" s="324"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4488,7 +4491,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="319"/>
+      <c r="A32" s="324"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4501,7 +4504,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="319"/>
+      <c r="A33" s="324"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4514,7 +4517,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="319"/>
+      <c r="A34" s="324"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4527,7 +4530,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="319"/>
+      <c r="A35" s="324"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4540,7 +4543,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="319"/>
+      <c r="A36" s="324"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4553,7 +4556,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="319"/>
+      <c r="A37" s="324"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4566,7 +4569,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="319"/>
+      <c r="A38" s="324"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4579,7 +4582,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="319"/>
+      <c r="A39" s="324"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4592,7 +4595,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="319"/>
+      <c r="A40" s="324"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4605,7 +4608,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="319"/>
+      <c r="A41" s="324"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4618,7 +4621,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="319"/>
+      <c r="A42" s="324"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4631,7 +4634,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="319"/>
+      <c r="A43" s="324"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4644,7 +4647,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="319"/>
+      <c r="A44" s="324"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4657,7 +4660,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="319"/>
+      <c r="A45" s="324"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4670,7 +4673,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="319"/>
+      <c r="A46" s="324"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4683,7 +4686,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="319"/>
+      <c r="A47" s="324"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4696,7 +4699,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="319"/>
+      <c r="A48" s="324"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4709,7 +4712,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="319"/>
+      <c r="A49" s="324"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4722,7 +4725,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="319"/>
+      <c r="A50" s="324"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4735,7 +4738,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="319"/>
+      <c r="A51" s="324"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4748,7 +4751,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="319"/>
+      <c r="A52" s="324"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4761,7 +4764,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="319"/>
+      <c r="A53" s="324"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4774,7 +4777,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="319"/>
+      <c r="A54" s="324"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4787,7 +4790,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="319"/>
+      <c r="A55" s="324"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4799,7 +4802,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="319"/>
+      <c r="A56" s="324"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4811,7 +4814,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="319"/>
+      <c r="A57" s="324"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4823,7 +4826,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="319"/>
+      <c r="A58" s="324"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4835,7 +4838,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="319"/>
+      <c r="A59" s="324"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4847,7 +4850,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="319"/>
+      <c r="A60" s="324"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4859,7 +4862,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="319"/>
+      <c r="A61" s="324"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4871,7 +4874,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="319"/>
+      <c r="A62" s="324"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4883,7 +4886,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="319"/>
+      <c r="A63" s="324"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4895,7 +4898,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="319"/>
+      <c r="A64" s="324"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4907,7 +4910,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="319"/>
+      <c r="A65" s="324"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4919,7 +4922,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="319"/>
+      <c r="A66" s="324"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4931,7 +4934,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="319"/>
+      <c r="A67" s="324"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4943,7 +4946,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="319"/>
+      <c r="A68" s="324"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4955,7 +4958,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="319"/>
+      <c r="A69" s="324"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4967,7 +4970,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="319"/>
+      <c r="A70" s="324"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -4979,7 +4982,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="319"/>
+      <c r="A71" s="324"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -4991,7 +4994,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="319"/>
+      <c r="A72" s="324"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -5003,7 +5006,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="319"/>
+      <c r="A73" s="324"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -5015,7 +5018,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="319"/>
+      <c r="A74" s="324"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -5027,7 +5030,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="319"/>
+      <c r="A75" s="324"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -5039,7 +5042,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="319"/>
+      <c r="A76" s="324"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -5051,7 +5054,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="319"/>
+      <c r="A77" s="324"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -5063,7 +5066,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="319"/>
+      <c r="A78" s="324"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -5075,7 +5078,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="319"/>
+      <c r="A79" s="324"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -5087,7 +5090,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="319"/>
+      <c r="A80" s="324"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -5099,7 +5102,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="319"/>
+      <c r="A81" s="324"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -5111,7 +5114,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="319"/>
+      <c r="A82" s="324"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -5123,7 +5126,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="319"/>
+      <c r="A83" s="324"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5180,33 +5183,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="318"/>
-      <c r="B1" s="318"/>
-      <c r="C1" s="318"/>
-      <c r="D1" s="318"/>
-      <c r="E1" s="318"/>
-      <c r="F1" s="318"/>
+      <c r="A1" s="323"/>
+      <c r="B1" s="323"/>
+      <c r="C1" s="323"/>
+      <c r="D1" s="323"/>
+      <c r="E1" s="323"/>
+      <c r="F1" s="323"/>
     </row>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="319"/>
-      <c r="B2" s="316" t="s">
+      <c r="A2" s="324"/>
+      <c r="B2" s="321" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="316"/>
-      <c r="D2" s="316"/>
-      <c r="E2" s="316"/>
+      <c r="C2" s="321"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="321"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="319"/>
-      <c r="B3" s="317" t="s">
+      <c r="A3" s="324"/>
+      <c r="B3" s="322" t="s">
         <v>214</v>
       </c>
-      <c r="C3" s="317"/>
-      <c r="D3" s="317"/>
-      <c r="E3" s="317"/>
+      <c r="C3" s="322"/>
+      <c r="D3" s="322"/>
+      <c r="E3" s="322"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="319"/>
+      <c r="A4" s="324"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5224,7 +5227,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="319"/>
+      <c r="A5" s="324"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5242,7 +5245,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="319"/>
+      <c r="A6" s="324"/>
       <c r="B6" s="26"/>
       <c r="C6" s="261"/>
       <c r="D6" s="261"/>
@@ -5254,7 +5257,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="319"/>
+      <c r="A7" s="324"/>
       <c r="B7" s="294" t="s">
         <v>215</v>
       </c>
@@ -5274,7 +5277,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="319"/>
+      <c r="A8" s="324"/>
       <c r="B8" s="294" t="s">
         <v>220</v>
       </c>
@@ -5294,7 +5297,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="319"/>
+      <c r="A9" s="324"/>
       <c r="B9" s="26" t="s">
         <v>222</v>
       </c>
@@ -5312,7 +5315,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="319"/>
+      <c r="A10" s="324"/>
       <c r="B10" s="26" t="s">
         <v>223</v>
       </c>
@@ -5330,7 +5333,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="319"/>
+      <c r="A11" s="324"/>
       <c r="B11" s="26" t="s">
         <v>224</v>
       </c>
@@ -5348,7 +5351,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="319"/>
+      <c r="A12" s="324"/>
       <c r="B12" s="26" t="s">
         <v>225</v>
       </c>
@@ -5366,7 +5369,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="319"/>
+      <c r="A13" s="324"/>
       <c r="B13" s="26" t="s">
         <v>226</v>
       </c>
@@ -5384,7 +5387,7 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="319"/>
+      <c r="A14" s="324"/>
       <c r="B14" s="26" t="s">
         <v>227</v>
       </c>
@@ -5402,7 +5405,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="319"/>
+      <c r="A15" s="324"/>
       <c r="B15" s="26" t="s">
         <v>229</v>
       </c>
@@ -5420,7 +5423,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="319"/>
+      <c r="A16" s="324"/>
       <c r="B16" s="26" t="s">
         <v>231</v>
       </c>
@@ -5438,7 +5441,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="319"/>
+      <c r="A17" s="324"/>
       <c r="B17" s="26" t="s">
         <v>232</v>
       </c>
@@ -5456,7 +5459,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="319"/>
+      <c r="A18" s="324"/>
       <c r="B18" s="294" t="s">
         <v>233</v>
       </c>
@@ -5478,7 +5481,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="319"/>
+      <c r="A19" s="324"/>
       <c r="B19" s="26" t="s">
         <v>233</v>
       </c>
@@ -5496,7 +5499,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="319"/>
+      <c r="A20" s="324"/>
       <c r="B20" s="294" t="s">
         <v>233</v>
       </c>
@@ -5518,7 +5521,7 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="319"/>
+      <c r="A21" s="324"/>
       <c r="B21" s="26" t="s">
         <v>235</v>
       </c>
@@ -5536,7 +5539,7 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="319"/>
+      <c r="A22" s="324"/>
       <c r="B22" s="26" t="s">
         <v>236</v>
       </c>
@@ -5554,7 +5557,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="319"/>
+      <c r="A23" s="324"/>
       <c r="B23" s="26" t="s">
         <v>240</v>
       </c>
@@ -5572,7 +5575,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="319"/>
+      <c r="A24" s="324"/>
       <c r="B24" s="26" t="s">
         <v>241</v>
       </c>
@@ -5590,7 +5593,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="319"/>
+      <c r="A25" s="324"/>
       <c r="B25" s="26" t="s">
         <v>242</v>
       </c>
@@ -5608,7 +5611,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="319"/>
+      <c r="A26" s="324"/>
       <c r="B26" s="26" t="s">
         <v>245</v>
       </c>
@@ -5626,7 +5629,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="319"/>
+      <c r="A27" s="324"/>
       <c r="B27" s="26" t="s">
         <v>246</v>
       </c>
@@ -5644,7 +5647,7 @@
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="319"/>
+      <c r="A28" s="324"/>
       <c r="B28" s="26" t="s">
         <v>250</v>
       </c>
@@ -5661,7 +5664,7 @@
       <c r="F28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="319"/>
+      <c r="A29" s="324"/>
       <c r="B29" s="26"/>
       <c r="C29" s="261"/>
       <c r="D29" s="261"/>
@@ -5673,7 +5676,7 @@
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="319"/>
+      <c r="A30" s="324"/>
       <c r="B30" s="26"/>
       <c r="C30" s="261"/>
       <c r="D30" s="261"/>
@@ -5685,7 +5688,7 @@
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="319"/>
+      <c r="A31" s="324"/>
       <c r="B31" s="26"/>
       <c r="C31" s="261"/>
       <c r="D31" s="261"/>
@@ -5697,7 +5700,7 @@
       <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="319"/>
+      <c r="A32" s="324"/>
       <c r="B32" s="26"/>
       <c r="C32" s="261"/>
       <c r="D32" s="261"/>
@@ -5709,7 +5712,7 @@
       <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="319"/>
+      <c r="A33" s="324"/>
       <c r="B33" s="26"/>
       <c r="C33" s="261"/>
       <c r="D33" s="263"/>
@@ -5721,7 +5724,7 @@
       <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="319"/>
+      <c r="A34" s="324"/>
       <c r="B34" s="26"/>
       <c r="C34" s="261"/>
       <c r="D34" s="261"/>
@@ -5733,7 +5736,7 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="319"/>
+      <c r="A35" s="324"/>
       <c r="B35" s="26"/>
       <c r="C35" s="261"/>
       <c r="D35" s="261"/>
@@ -5745,7 +5748,7 @@
       <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="319"/>
+      <c r="A36" s="324"/>
       <c r="B36" s="26"/>
       <c r="C36" s="261"/>
       <c r="D36" s="261"/>
@@ -5757,7 +5760,7 @@
       <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="319"/>
+      <c r="A37" s="324"/>
       <c r="B37" s="26"/>
       <c r="C37" s="261"/>
       <c r="D37" s="261"/>
@@ -5769,7 +5772,7 @@
       <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="319"/>
+      <c r="A38" s="324"/>
       <c r="B38" s="26"/>
       <c r="C38" s="261"/>
       <c r="D38" s="261"/>
@@ -5781,7 +5784,7 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="319"/>
+      <c r="A39" s="324"/>
       <c r="B39" s="26"/>
       <c r="C39" s="261"/>
       <c r="D39" s="261"/>
@@ -5793,7 +5796,7 @@
       <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="319"/>
+      <c r="A40" s="324"/>
       <c r="B40" s="26"/>
       <c r="C40" s="261"/>
       <c r="D40" s="261"/>
@@ -5805,7 +5808,7 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="319"/>
+      <c r="A41" s="324"/>
       <c r="B41" s="26"/>
       <c r="C41" s="261"/>
       <c r="D41" s="261"/>
@@ -5817,7 +5820,7 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="319"/>
+      <c r="A42" s="324"/>
       <c r="B42" s="26"/>
       <c r="C42" s="261"/>
       <c r="D42" s="261"/>
@@ -5829,7 +5832,7 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="319"/>
+      <c r="A43" s="324"/>
       <c r="B43" s="26"/>
       <c r="C43" s="261"/>
       <c r="D43" s="261"/>
@@ -5841,7 +5844,7 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="319"/>
+      <c r="A44" s="324"/>
       <c r="B44" s="26"/>
       <c r="C44" s="261"/>
       <c r="D44" s="261"/>
@@ -5853,7 +5856,7 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="319"/>
+      <c r="A45" s="324"/>
       <c r="B45" s="26"/>
       <c r="C45" s="261"/>
       <c r="D45" s="261"/>
@@ -5865,7 +5868,7 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="319"/>
+      <c r="A46" s="324"/>
       <c r="B46" s="26"/>
       <c r="C46" s="261"/>
       <c r="D46" s="261"/>
@@ -5877,7 +5880,7 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="319"/>
+      <c r="A47" s="324"/>
       <c r="B47" s="26"/>
       <c r="C47" s="261"/>
       <c r="D47" s="261"/>
@@ -5889,7 +5892,7 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="319"/>
+      <c r="A48" s="324"/>
       <c r="B48" s="26"/>
       <c r="C48" s="261"/>
       <c r="D48" s="261"/>
@@ -5901,7 +5904,7 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="319"/>
+      <c r="A49" s="324"/>
       <c r="B49" s="26"/>
       <c r="C49" s="261"/>
       <c r="D49" s="261"/>
@@ -5913,7 +5916,7 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="319"/>
+      <c r="A50" s="324"/>
       <c r="B50" s="26"/>
       <c r="C50" s="261"/>
       <c r="D50" s="261"/>
@@ -5925,7 +5928,7 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="319"/>
+      <c r="A51" s="324"/>
       <c r="B51" s="26"/>
       <c r="C51" s="261"/>
       <c r="D51" s="261"/>
@@ -5937,7 +5940,7 @@
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="319"/>
+      <c r="A52" s="324"/>
       <c r="B52" s="26"/>
       <c r="C52" s="261"/>
       <c r="D52" s="261"/>
@@ -5949,7 +5952,7 @@
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="319"/>
+      <c r="A53" s="324"/>
       <c r="B53" s="26"/>
       <c r="C53" s="261"/>
       <c r="D53" s="261"/>
@@ -5961,7 +5964,7 @@
       <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="319"/>
+      <c r="A54" s="324"/>
       <c r="B54" s="26"/>
       <c r="C54" s="261"/>
       <c r="D54" s="261"/>
@@ -5973,7 +5976,7 @@
       <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="319"/>
+      <c r="A55" s="324"/>
       <c r="B55" s="26"/>
       <c r="C55" s="261"/>
       <c r="D55" s="261"/>
@@ -5984,7 +5987,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="319"/>
+      <c r="A56" s="324"/>
       <c r="B56" s="26"/>
       <c r="C56" s="261"/>
       <c r="D56" s="261"/>
@@ -5995,7 +5998,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="319"/>
+      <c r="A57" s="324"/>
       <c r="B57" s="26"/>
       <c r="C57" s="261"/>
       <c r="D57" s="261"/>
@@ -6006,7 +6009,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="319"/>
+      <c r="A58" s="324"/>
       <c r="B58" s="26"/>
       <c r="C58" s="261"/>
       <c r="D58" s="261"/>
@@ -6017,7 +6020,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="319"/>
+      <c r="A59" s="324"/>
       <c r="B59" s="26"/>
       <c r="C59" s="261"/>
       <c r="D59" s="261"/>
@@ -6028,7 +6031,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="319"/>
+      <c r="A60" s="324"/>
       <c r="B60" s="26"/>
       <c r="C60" s="261"/>
       <c r="D60" s="261"/>
@@ -6039,7 +6042,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="319"/>
+      <c r="A61" s="324"/>
       <c r="B61" s="26"/>
       <c r="C61" s="261"/>
       <c r="D61" s="261"/>
@@ -6050,7 +6053,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="319"/>
+      <c r="A62" s="324"/>
       <c r="B62" s="26"/>
       <c r="C62" s="261"/>
       <c r="D62" s="261"/>
@@ -6061,7 +6064,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="319"/>
+      <c r="A63" s="324"/>
       <c r="B63" s="26"/>
       <c r="C63" s="261"/>
       <c r="D63" s="261"/>
@@ -6072,7 +6075,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="319"/>
+      <c r="A64" s="324"/>
       <c r="B64" s="26"/>
       <c r="C64" s="261"/>
       <c r="D64" s="261"/>
@@ -6083,7 +6086,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="319"/>
+      <c r="A65" s="324"/>
       <c r="B65" s="26"/>
       <c r="C65" s="261"/>
       <c r="D65" s="261"/>
@@ -6094,7 +6097,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="319"/>
+      <c r="A66" s="324"/>
       <c r="B66" s="26"/>
       <c r="C66" s="261"/>
       <c r="D66" s="261"/>
@@ -6105,7 +6108,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="319"/>
+      <c r="A67" s="324"/>
       <c r="B67" s="26"/>
       <c r="C67" s="261"/>
       <c r="D67" s="261"/>
@@ -6116,7 +6119,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="319"/>
+      <c r="A68" s="324"/>
       <c r="B68" s="26"/>
       <c r="C68" s="261"/>
       <c r="D68" s="261"/>
@@ -6127,7 +6130,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="319"/>
+      <c r="A69" s="324"/>
       <c r="B69" s="26"/>
       <c r="C69" s="261"/>
       <c r="D69" s="261"/>
@@ -6138,7 +6141,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="319"/>
+      <c r="A70" s="324"/>
       <c r="B70" s="26"/>
       <c r="C70" s="261"/>
       <c r="D70" s="261"/>
@@ -6149,7 +6152,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="319"/>
+      <c r="A71" s="324"/>
       <c r="B71" s="26"/>
       <c r="C71" s="261"/>
       <c r="D71" s="261"/>
@@ -6160,7 +6163,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="319"/>
+      <c r="A72" s="324"/>
       <c r="B72" s="26"/>
       <c r="C72" s="261"/>
       <c r="D72" s="261"/>
@@ -6171,7 +6174,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="319"/>
+      <c r="A73" s="324"/>
       <c r="B73" s="26"/>
       <c r="C73" s="261"/>
       <c r="D73" s="261"/>
@@ -6182,7 +6185,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="319"/>
+      <c r="A74" s="324"/>
       <c r="B74" s="26"/>
       <c r="C74" s="261"/>
       <c r="D74" s="261"/>
@@ -6193,7 +6196,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="319"/>
+      <c r="A75" s="324"/>
       <c r="B75" s="26"/>
       <c r="C75" s="261"/>
       <c r="D75" s="261"/>
@@ -6204,7 +6207,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="319"/>
+      <c r="A76" s="324"/>
       <c r="B76" s="26"/>
       <c r="C76" s="261"/>
       <c r="D76" s="261"/>
@@ -6215,7 +6218,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="319"/>
+      <c r="A77" s="324"/>
       <c r="B77" s="26"/>
       <c r="C77" s="261"/>
       <c r="D77" s="261"/>
@@ -6226,7 +6229,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="319"/>
+      <c r="A78" s="324"/>
       <c r="B78" s="26"/>
       <c r="C78" s="261"/>
       <c r="D78" s="261"/>
@@ -6237,7 +6240,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="319"/>
+      <c r="A79" s="324"/>
       <c r="B79" s="26"/>
       <c r="C79" s="261"/>
       <c r="D79" s="261"/>
@@ -6249,7 +6252,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="319"/>
+      <c r="A80" s="324"/>
       <c r="B80" s="26"/>
       <c r="C80" s="261"/>
       <c r="D80" s="261"/>
@@ -6261,7 +6264,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="319"/>
+      <c r="A81" s="324"/>
       <c r="B81" s="26"/>
       <c r="C81" s="261"/>
       <c r="D81" s="261"/>
@@ -6273,7 +6276,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="319"/>
+      <c r="A82" s="324"/>
       <c r="B82" s="26"/>
       <c r="C82" s="261"/>
       <c r="D82" s="261"/>
@@ -6285,7 +6288,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="319"/>
+      <c r="A83" s="324"/>
       <c r="B83" s="290"/>
       <c r="C83" s="262">
         <f>SUM(C5:C72)</f>
@@ -6364,67 +6367,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="324" t="s">
+      <c r="A1" s="329" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="324"/>
-      <c r="C1" s="324"/>
-      <c r="D1" s="324"/>
-      <c r="E1" s="324"/>
-      <c r="F1" s="324"/>
-      <c r="G1" s="324"/>
-      <c r="H1" s="324"/>
-      <c r="I1" s="324"/>
-      <c r="J1" s="324"/>
-      <c r="K1" s="324"/>
-      <c r="L1" s="324"/>
-      <c r="M1" s="324"/>
-      <c r="N1" s="324"/>
-      <c r="O1" s="324"/>
-      <c r="P1" s="324"/>
-      <c r="Q1" s="324"/>
+      <c r="B1" s="329"/>
+      <c r="C1" s="329"/>
+      <c r="D1" s="329"/>
+      <c r="E1" s="329"/>
+      <c r="F1" s="329"/>
+      <c r="G1" s="329"/>
+      <c r="H1" s="329"/>
+      <c r="I1" s="329"/>
+      <c r="J1" s="329"/>
+      <c r="K1" s="329"/>
+      <c r="L1" s="329"/>
+      <c r="M1" s="329"/>
+      <c r="N1" s="329"/>
+      <c r="O1" s="329"/>
+      <c r="P1" s="329"/>
+      <c r="Q1" s="329"/>
     </row>
     <row r="2" spans="1:24" s="70" customFormat="1" ht="18">
-      <c r="A2" s="325" t="s">
+      <c r="A2" s="330" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="325"/>
-      <c r="C2" s="325"/>
-      <c r="D2" s="325"/>
-      <c r="E2" s="325"/>
-      <c r="F2" s="325"/>
-      <c r="G2" s="325"/>
-      <c r="H2" s="325"/>
-      <c r="I2" s="325"/>
-      <c r="J2" s="325"/>
-      <c r="K2" s="325"/>
-      <c r="L2" s="325"/>
-      <c r="M2" s="325"/>
-      <c r="N2" s="325"/>
-      <c r="O2" s="325"/>
-      <c r="P2" s="325"/>
-      <c r="Q2" s="325"/>
+      <c r="B2" s="330"/>
+      <c r="C2" s="330"/>
+      <c r="D2" s="330"/>
+      <c r="E2" s="330"/>
+      <c r="F2" s="330"/>
+      <c r="G2" s="330"/>
+      <c r="H2" s="330"/>
+      <c r="I2" s="330"/>
+      <c r="J2" s="330"/>
+      <c r="K2" s="330"/>
+      <c r="L2" s="330"/>
+      <c r="M2" s="330"/>
+      <c r="N2" s="330"/>
+      <c r="O2" s="330"/>
+      <c r="P2" s="330"/>
+      <c r="Q2" s="330"/>
     </row>
     <row r="3" spans="1:24" s="71" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="326" t="s">
+      <c r="A3" s="331" t="s">
         <v>217</v>
       </c>
-      <c r="B3" s="327"/>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="327"/>
-      <c r="F3" s="327"/>
-      <c r="G3" s="327"/>
-      <c r="H3" s="327"/>
-      <c r="I3" s="327"/>
-      <c r="J3" s="327"/>
-      <c r="K3" s="327"/>
-      <c r="L3" s="327"/>
-      <c r="M3" s="327"/>
-      <c r="N3" s="327"/>
-      <c r="O3" s="327"/>
-      <c r="P3" s="327"/>
-      <c r="Q3" s="328"/>
+      <c r="B3" s="332"/>
+      <c r="C3" s="332"/>
+      <c r="D3" s="332"/>
+      <c r="E3" s="332"/>
+      <c r="F3" s="332"/>
+      <c r="G3" s="332"/>
+      <c r="H3" s="332"/>
+      <c r="I3" s="332"/>
+      <c r="J3" s="332"/>
+      <c r="K3" s="332"/>
+      <c r="L3" s="332"/>
+      <c r="M3" s="332"/>
+      <c r="N3" s="332"/>
+      <c r="O3" s="332"/>
+      <c r="P3" s="332"/>
+      <c r="Q3" s="333"/>
       <c r="S3" s="54"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6433,52 +6436,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="72" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="329" t="s">
+      <c r="A4" s="334" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="331" t="s">
+      <c r="B4" s="336" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="320" t="s">
+      <c r="C4" s="325" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="320" t="s">
+      <c r="D4" s="325" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="320" t="s">
+      <c r="E4" s="325" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="320" t="s">
+      <c r="F4" s="325" t="s">
         <v>183</v>
       </c>
-      <c r="G4" s="320" t="s">
+      <c r="G4" s="325" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="320" t="s">
+      <c r="H4" s="325" t="s">
         <v>221</v>
       </c>
-      <c r="I4" s="320" t="s">
+      <c r="I4" s="325" t="s">
         <v>206</v>
       </c>
-      <c r="J4" s="320" t="s">
+      <c r="J4" s="325" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="320" t="s">
+      <c r="K4" s="325" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="320" t="s">
+      <c r="L4" s="325" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="320" t="s">
+      <c r="M4" s="325" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="320" t="s">
+      <c r="N4" s="325" t="s">
         <v>243</v>
       </c>
-      <c r="O4" s="322" t="s">
+      <c r="O4" s="327" t="s">
         <v>42</v>
       </c>
-      <c r="P4" s="333" t="s">
+      <c r="P4" s="338" t="s">
         <v>65</v>
       </c>
       <c r="Q4" s="132" t="s">
@@ -6491,22 +6494,22 @@
       <c r="W4" s="74"/>
     </row>
     <row r="5" spans="1:24" s="72" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="330"/>
-      <c r="B5" s="332"/>
-      <c r="C5" s="321"/>
-      <c r="D5" s="321"/>
-      <c r="E5" s="321"/>
-      <c r="F5" s="321"/>
-      <c r="G5" s="321"/>
-      <c r="H5" s="321"/>
-      <c r="I5" s="321"/>
-      <c r="J5" s="321"/>
-      <c r="K5" s="321"/>
-      <c r="L5" s="321"/>
-      <c r="M5" s="321"/>
-      <c r="N5" s="321"/>
-      <c r="O5" s="323"/>
-      <c r="P5" s="334"/>
+      <c r="A5" s="335"/>
+      <c r="B5" s="337"/>
+      <c r="C5" s="326"/>
+      <c r="D5" s="326"/>
+      <c r="E5" s="326"/>
+      <c r="F5" s="326"/>
+      <c r="G5" s="326"/>
+      <c r="H5" s="326"/>
+      <c r="I5" s="326"/>
+      <c r="J5" s="326"/>
+      <c r="K5" s="326"/>
+      <c r="L5" s="326"/>
+      <c r="M5" s="326"/>
+      <c r="N5" s="326"/>
+      <c r="O5" s="328"/>
+      <c r="P5" s="339"/>
       <c r="Q5" s="133" t="s">
         <v>43</v>
       </c>
@@ -9641,11 +9644,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -9660,6 +9658,11 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9673,8 +9676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9701,14 +9704,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="339" t="s">
+      <c r="A1" s="344" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="340"/>
-      <c r="C1" s="340"/>
-      <c r="D1" s="340"/>
-      <c r="E1" s="340"/>
-      <c r="F1" s="341"/>
+      <c r="B1" s="345"/>
+      <c r="C1" s="345"/>
+      <c r="D1" s="345"/>
+      <c r="E1" s="345"/>
+      <c r="F1" s="346"/>
       <c r="G1" s="65"/>
       <c r="H1" s="65"/>
       <c r="I1" s="149"/>
@@ -9802,14 +9805,14 @@
       <c r="CS1" s="144"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="342" t="s">
+      <c r="A2" s="347" t="s">
         <v>219</v>
       </c>
-      <c r="B2" s="343"/>
-      <c r="C2" s="343"/>
-      <c r="D2" s="343"/>
-      <c r="E2" s="343"/>
-      <c r="F2" s="344"/>
+      <c r="B2" s="348"/>
+      <c r="C2" s="348"/>
+      <c r="D2" s="348"/>
+      <c r="E2" s="348"/>
+      <c r="F2" s="349"/>
       <c r="G2" s="65"/>
       <c r="H2" s="65"/>
       <c r="I2" s="149"/>
@@ -9903,14 +9906,14 @@
       <c r="CS2" s="144"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="345" t="s">
+      <c r="A3" s="350" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="346"/>
-      <c r="C3" s="346"/>
-      <c r="D3" s="346"/>
-      <c r="E3" s="346"/>
-      <c r="F3" s="347"/>
+      <c r="B3" s="351"/>
+      <c r="C3" s="351"/>
+      <c r="D3" s="351"/>
+      <c r="E3" s="351"/>
+      <c r="F3" s="352"/>
       <c r="G3" s="65"/>
       <c r="H3" s="65"/>
       <c r="I3" s="149"/>
@@ -12214,14 +12217,14 @@
         <v>644500</v>
       </c>
       <c r="C24" s="56">
-        <v>638150</v>
+        <v>638030</v>
       </c>
       <c r="D24" s="53">
         <v>1760</v>
       </c>
       <c r="E24" s="53">
         <f t="shared" si="0"/>
-        <v>639910</v>
+        <v>639790</v>
       </c>
       <c r="F24" s="240"/>
       <c r="G24" s="252"/>
@@ -13142,7 +13145,7 @@
       </c>
       <c r="C33" s="266">
         <f>SUM(C5:C32)</f>
-        <v>12457510</v>
+        <v>12457390</v>
       </c>
       <c r="D33" s="265">
         <f>SUM(D5:D32)</f>
@@ -13150,11 +13153,11 @@
       </c>
       <c r="E33" s="265">
         <f>SUM(E5:E32)</f>
-        <v>12498770</v>
+        <v>12498650</v>
       </c>
       <c r="F33" s="265">
         <f>B33-E33</f>
-        <v>-1880620</v>
+        <v>-1880500</v>
       </c>
       <c r="G33" s="267"/>
       <c r="H33" s="145"/>
@@ -13349,12 +13352,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="139"/>
-      <c r="B35" s="337" t="s">
+      <c r="B35" s="342" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="337"/>
-      <c r="D35" s="337"/>
-      <c r="E35" s="337"/>
+      <c r="C35" s="342"/>
+      <c r="D35" s="342"/>
+      <c r="E35" s="342"/>
       <c r="F35" s="140"/>
       <c r="G35" s="145"/>
       <c r="H35" s="145"/>
@@ -14227,10 +14230,10 @@
       <c r="D43" s="215"/>
       <c r="E43" s="183"/>
       <c r="F43" s="140"/>
-      <c r="G43" s="338"/>
-      <c r="H43" s="338"/>
-      <c r="I43" s="338"/>
-      <c r="J43" s="338"/>
+      <c r="G43" s="343"/>
+      <c r="H43" s="343"/>
+      <c r="I43" s="343"/>
+      <c r="J43" s="343"/>
       <c r="K43" s="65"/>
       <c r="L43" s="149"/>
       <c r="M43" s="65"/>
@@ -14674,10 +14677,10 @@
         <v>1765002244</v>
       </c>
       <c r="D47" s="218">
-        <v>149880</v>
+        <v>150000</v>
       </c>
       <c r="E47" s="184" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="F47" s="138"/>
       <c r="G47" s="144"/>
@@ -18294,17 +18297,17 @@
     </row>
     <row r="78" spans="1:97">
       <c r="A78" s="235" t="s">
-        <v>99</v>
+        <v>247</v>
       </c>
       <c r="B78" s="58" t="s">
-        <v>180</v>
+        <v>248</v>
       </c>
       <c r="C78" s="123"/>
       <c r="D78" s="218">
-        <v>14890</v>
-      </c>
-      <c r="E78" s="184" t="s">
-        <v>233</v>
+        <v>15050</v>
+      </c>
+      <c r="E78" s="186" t="s">
+        <v>246</v>
       </c>
       <c r="F78" s="289"/>
       <c r="G78" s="144"/>
@@ -18411,11 +18414,19 @@
       <c r="CS78" s="144"/>
     </row>
     <row r="79" spans="1:97">
-      <c r="A79" s="235"/>
-      <c r="B79" s="58"/>
+      <c r="A79" s="235" t="s">
+        <v>99</v>
+      </c>
+      <c r="B79" s="58" t="s">
+        <v>180</v>
+      </c>
       <c r="C79" s="123"/>
-      <c r="D79" s="218"/>
-      <c r="E79" s="186"/>
+      <c r="D79" s="218">
+        <v>14890</v>
+      </c>
+      <c r="E79" s="184" t="s">
+        <v>233</v>
+      </c>
       <c r="F79" s="138"/>
       <c r="G79" s="144"/>
       <c r="H79" s="194" t="s">
@@ -20423,19 +20434,11 @@
       <c r="CS95" s="144"/>
     </row>
     <row r="96" spans="1:97">
-      <c r="A96" s="235" t="s">
-        <v>247</v>
-      </c>
-      <c r="B96" s="58" t="s">
-        <v>248</v>
-      </c>
+      <c r="A96" s="235"/>
+      <c r="B96" s="58"/>
       <c r="C96" s="123"/>
-      <c r="D96" s="218">
-        <v>15050</v>
-      </c>
-      <c r="E96" s="186" t="s">
-        <v>246</v>
-      </c>
+      <c r="D96" s="218"/>
+      <c r="E96" s="186"/>
       <c r="F96" s="144"/>
       <c r="G96" s="144"/>
       <c r="H96" s="194" t="s">
@@ -22905,14 +22908,14 @@
       <c r="CS118" s="144"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="335" t="s">
+      <c r="A119" s="340" t="s">
         <v>30</v>
       </c>
-      <c r="B119" s="336"/>
-      <c r="C119" s="348"/>
+      <c r="B119" s="341"/>
+      <c r="C119" s="353"/>
       <c r="D119" s="221">
         <f>SUM(D37:D118)</f>
-        <v>2399035</v>
+        <v>2399155</v>
       </c>
       <c r="E119" s="213"/>
       <c r="F119" s="144"/>
@@ -23112,14 +23115,14 @@
       <c r="CS120" s="144"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="335" t="s">
+      <c r="A121" s="340" t="s">
         <v>31</v>
       </c>
-      <c r="B121" s="336"/>
-      <c r="C121" s="336"/>
+      <c r="B121" s="341"/>
+      <c r="C121" s="341"/>
       <c r="D121" s="221">
         <f>D119+M121</f>
-        <v>2399035</v>
+        <v>2399155</v>
       </c>
       <c r="E121" s="213"/>
       <c r="F121" s="144"/>
@@ -34353,7 +34356,7 @@
   </sheetPr>
   <dimension ref="A1:Y218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -34373,35 +34376,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="355" t="s">
+      <c r="A1" s="360" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="356"/>
-      <c r="C1" s="356"/>
-      <c r="D1" s="356"/>
-      <c r="E1" s="357"/>
+      <c r="B1" s="361"/>
+      <c r="C1" s="361"/>
+      <c r="D1" s="361"/>
+      <c r="E1" s="362"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:25" ht="21.75">
-      <c r="A2" s="361" t="s">
+      <c r="A2" s="366" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="362"/>
-      <c r="C2" s="362"/>
-      <c r="D2" s="362"/>
-      <c r="E2" s="363"/>
+      <c r="B2" s="367"/>
+      <c r="C2" s="367"/>
+      <c r="D2" s="367"/>
+      <c r="E2" s="368"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:25" ht="23.25">
-      <c r="A3" s="358" t="s">
+      <c r="A3" s="363" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="359"/>
-      <c r="C3" s="359"/>
-      <c r="D3" s="359"/>
-      <c r="E3" s="360"/>
+      <c r="B3" s="364"/>
+      <c r="C3" s="364"/>
+      <c r="D3" s="364"/>
+      <c r="E3" s="365"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -34424,15 +34427,15 @@
       <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="23.25">
-      <c r="A4" s="364" t="s">
+      <c r="A4" s="369" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="365"/>
+      <c r="B4" s="370"/>
       <c r="C4" s="272"/>
-      <c r="D4" s="366" t="s">
+      <c r="D4" s="371" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="367"/>
+      <c r="E4" s="372"/>
       <c r="F4" s="5"/>
       <c r="G4" s="46"/>
       <c r="H4" s="7"/>
@@ -34906,13 +34909,13 @@
       <c r="Y18" s="7"/>
     </row>
     <row r="19" spans="1:25" ht="22.5">
-      <c r="A19" s="352" t="s">
+      <c r="A19" s="357" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="353"/>
-      <c r="C19" s="353"/>
-      <c r="D19" s="353"/>
-      <c r="E19" s="354"/>
+      <c r="B19" s="358"/>
+      <c r="C19" s="358"/>
+      <c r="D19" s="358"/>
+      <c r="E19" s="359"/>
       <c r="F19" s="5"/>
       <c r="G19" s="9"/>
       <c r="H19" s="7"/>
@@ -35325,17 +35328,17 @@
       <c r="Y32" s="7"/>
     </row>
     <row r="33" spans="1:25" ht="22.5" thickBot="1">
-      <c r="A33" s="368" t="s">
+      <c r="A33" s="316" t="s">
         <v>185</v>
       </c>
-      <c r="B33" s="369">
+      <c r="B33" s="317">
         <v>35960</v>
       </c>
-      <c r="C33" s="370"/>
-      <c r="D33" s="371" t="s">
+      <c r="C33" s="318"/>
+      <c r="D33" s="319" t="s">
         <v>176</v>
       </c>
-      <c r="E33" s="372">
+      <c r="E33" s="320">
         <v>80000</v>
       </c>
       <c r="G33" s="16"/>
@@ -35355,11 +35358,11 @@
       <c r="Y33" s="7"/>
     </row>
     <row r="34" spans="1:25" ht="21" thickBot="1">
-      <c r="A34" s="349"/>
-      <c r="B34" s="350"/>
-      <c r="C34" s="350"/>
-      <c r="D34" s="350"/>
-      <c r="E34" s="351"/>
+      <c r="A34" s="354"/>
+      <c r="B34" s="355"/>
+      <c r="C34" s="355"/>
+      <c r="D34" s="355"/>
+      <c r="E34" s="356"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
